--- a/TestData/PDF.xlsx
+++ b/TestData/PDF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EBC9D4-3C75-4ABE-B1E0-5E5ED2F89C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A315EE8-7030-407A-853D-F58981F17412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="1305" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDFVALUES" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Sushri</t>
   </si>
   <si>
-    <t xml:space="preserve">taf </t>
-  </si>
-  <si>
     <t>C:\Users\DELL\eclipse-workspace\Mohs10_TAF\test-output\Suite\Test.html</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>C:\Users\DELL\eclipse-workspace\Mohs10_TAF\M10_logo</t>
+  </si>
+  <si>
+    <t>TAF</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,19 +451,19 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
